--- a/DOC/基本設計/基本設計_emsm_経費管理.xlsx
+++ b/DOC/基本設計/基本設計_emsm_経費管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968F8F0A-3051-0C46-847B-07EC4C946602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D3651F-0C0A-234A-9F7E-BDFFCC14438F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" tabRatio="833" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="160">
   <si>
     <t>No</t>
   </si>
@@ -406,9 +406,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>プルダウン</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -495,10 +492,6 @@
   </si>
   <si>
     <t>戻るボタン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>戻る</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3521,6 +3514,12 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="98" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="99" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3661,12 +3660,6 @@
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="98" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="99" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4978,22 +4971,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>79020</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>148166</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8336A929-CF3D-153A-4021-ACA650838EB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A416F3A-5482-56E8-1016-42676DD5A82E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5009,8 +5002,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="264583" y="963083"/>
-          <a:ext cx="10609437" cy="2540000"/>
+          <a:off x="169333" y="783167"/>
+          <a:ext cx="10805584" cy="4679690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>111734</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4CD4A7-9FBC-7A64-D2C6-E45CB1CC282A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="158750" y="5439833"/>
+          <a:ext cx="11086651" cy="3323167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5282,7 +5319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB840810-B8C4-461F-9614-119EB62AE124}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G23" sqref="G23:R24"/>
     </sheetView>
   </sheetViews>
@@ -6641,7 +6678,7 @@
       <c r="E4" s="166"/>
       <c r="F4" s="167"/>
       <c r="G4" s="168" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H4" s="169"/>
       <c r="I4" s="169"/>
@@ -9496,9 +9533,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
-  <dimension ref="A1:BQ45"/>
+  <dimension ref="A1:BQ50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection sqref="A1:AC1"/>
     </sheetView>
   </sheetViews>
@@ -10145,7 +10182,7 @@
       <c r="AT6" s="209"/>
       <c r="AU6" s="210"/>
       <c r="AV6" s="116" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AW6" s="117"/>
       <c r="AX6" s="117"/>
@@ -10221,7 +10258,7 @@
       <c r="AT7" s="209"/>
       <c r="AU7" s="210"/>
       <c r="AV7" s="211" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AW7" s="212"/>
       <c r="AX7" s="212"/>
@@ -10251,7 +10288,7 @@
       <c r="B8" s="72"/>
       <c r="C8" s="72"/>
       <c r="D8" s="111" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" s="112"/>
       <c r="F8" s="113"/>
@@ -10299,7 +10336,7 @@
       <c r="AT8" s="209"/>
       <c r="AU8" s="210"/>
       <c r="AV8" s="211" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AW8" s="212"/>
       <c r="AX8" s="212"/>
@@ -10313,7 +10350,7 @@
       <c r="BF8" s="212"/>
       <c r="BG8" s="213"/>
       <c r="BH8" s="211" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BI8" s="212"/>
       <c r="BJ8" s="212"/>
@@ -10375,7 +10412,7 @@
       <c r="AT9" s="209"/>
       <c r="AU9" s="210"/>
       <c r="AV9" s="142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AW9" s="109"/>
       <c r="AX9" s="109"/>
@@ -10389,7 +10426,7 @@
       <c r="BF9" s="109"/>
       <c r="BG9" s="110"/>
       <c r="BH9" s="108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BI9" s="109"/>
       <c r="BJ9" s="109"/>
@@ -10409,7 +10446,7 @@
       </c>
       <c r="E10" s="125"/>
       <c r="F10" s="126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G10" s="126" t="s">
         <v>67</v>
@@ -10513,7 +10550,7 @@
       <c r="BF10" s="109"/>
       <c r="BG10" s="110"/>
       <c r="BH10" s="108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BI10" s="109"/>
       <c r="BJ10" s="109"/>
@@ -10593,7 +10630,7 @@
       <c r="BF11" s="109"/>
       <c r="BG11" s="110"/>
       <c r="BH11" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BI11" s="109"/>
       <c r="BJ11" s="109"/>
@@ -10669,7 +10706,7 @@
       <c r="BF12" s="109"/>
       <c r="BG12" s="110"/>
       <c r="BH12" s="108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BI12" s="109"/>
       <c r="BJ12" s="109"/>
@@ -10745,7 +10782,7 @@
       <c r="BF13" s="109"/>
       <c r="BG13" s="110"/>
       <c r="BH13" s="108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BI13" s="109"/>
       <c r="BJ13" s="109"/>
@@ -10821,7 +10858,7 @@
       <c r="BF14" s="109"/>
       <c r="BG14" s="110"/>
       <c r="BH14" s="108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BI14" s="109"/>
       <c r="BJ14" s="109"/>
@@ -10897,7 +10934,7 @@
       <c r="BF15" s="109"/>
       <c r="BG15" s="110"/>
       <c r="BH15" s="108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BI15" s="109"/>
       <c r="BJ15" s="109"/>
@@ -10959,7 +10996,7 @@
       <c r="AT16" s="209"/>
       <c r="AU16" s="210"/>
       <c r="AV16" s="108" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AW16" s="109"/>
       <c r="AX16" s="109"/>
@@ -10973,7 +11010,7 @@
       <c r="BF16" s="109"/>
       <c r="BG16" s="110"/>
       <c r="BH16" s="108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BI16" s="109"/>
       <c r="BJ16" s="109"/>
@@ -11035,7 +11072,7 @@
       <c r="AT17" s="209"/>
       <c r="AU17" s="210"/>
       <c r="AV17" s="108" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AW17" s="109"/>
       <c r="AX17" s="109"/>
@@ -11049,7 +11086,7 @@
       <c r="BF17" s="109"/>
       <c r="BG17" s="110"/>
       <c r="BH17" s="108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BI17" s="109"/>
       <c r="BJ17" s="109"/>
@@ -11257,14 +11294,10 @@
       <c r="AP20" s="72"/>
       <c r="AQ20" s="72"/>
       <c r="AR20" s="72"/>
-      <c r="AS20" s="208" t="s">
-        <v>102</v>
-      </c>
+      <c r="AS20" s="208"/>
       <c r="AT20" s="209"/>
       <c r="AU20" s="210"/>
-      <c r="AV20" s="108" t="s">
-        <v>116</v>
-      </c>
+      <c r="AV20" s="108"/>
       <c r="AW20" s="109"/>
       <c r="AX20" s="109"/>
       <c r="AY20" s="109"/>
@@ -11276,9 +11309,7 @@
       <c r="BE20" s="109"/>
       <c r="BF20" s="109"/>
       <c r="BG20" s="110"/>
-      <c r="BH20" s="108" t="s">
-        <v>81</v>
-      </c>
+      <c r="BH20" s="108"/>
       <c r="BI20" s="109"/>
       <c r="BJ20" s="109"/>
       <c r="BK20" s="109"/>
@@ -11435,13 +11466,13 @@
       <c r="B23" s="72"/>
       <c r="C23" s="72"/>
       <c r="D23" s="72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E23" s="72"/>
       <c r="F23" s="111"/>
       <c r="G23" s="113"/>
       <c r="H23" s="72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I23" s="111"/>
       <c r="J23" s="113"/>
@@ -11449,12 +11480,12 @@
       <c r="L23" s="72"/>
       <c r="M23" s="72"/>
       <c r="N23" s="72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O23" s="72"/>
       <c r="P23" s="72"/>
       <c r="Q23" s="111" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R23" s="112"/>
       <c r="S23" s="113"/>
@@ -11680,10 +11711,10 @@
         <v>84</v>
       </c>
       <c r="U26" s="126" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V26" s="126" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="W26" s="72"/>
       <c r="X26" s="72"/>
@@ -12259,7 +12290,7 @@
       <c r="F34" s="72"/>
       <c r="G34" s="72"/>
       <c r="H34" s="72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I34" s="115"/>
       <c r="J34" s="72"/>
@@ -12542,7 +12573,7 @@
       <c r="P38" s="72"/>
       <c r="Q38" s="72"/>
       <c r="R38" s="111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S38" s="112"/>
       <c r="T38" s="113"/>
@@ -13016,74 +13047,424 @@
       <c r="BP44" s="73"/>
     </row>
     <row r="45" spans="1:68">
-      <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="38"/>
-      <c r="AE45" s="38"/>
-      <c r="AF45" s="38"/>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="38"/>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="38"/>
-      <c r="AK45" s="38"/>
-      <c r="AL45" s="38"/>
-      <c r="AM45" s="38"/>
-      <c r="AN45" s="38"/>
-      <c r="AO45" s="38"/>
-      <c r="AP45" s="38"/>
-      <c r="AQ45" s="38"/>
-      <c r="AR45" s="38"/>
-      <c r="AS45" s="38"/>
-      <c r="AT45" s="38"/>
-      <c r="AU45" s="38"/>
-      <c r="AV45" s="38"/>
-      <c r="AW45" s="38"/>
-      <c r="AX45" s="38"/>
-      <c r="AY45" s="38"/>
-      <c r="AZ45" s="38"/>
-      <c r="BA45" s="38"/>
-      <c r="BB45" s="38"/>
-      <c r="BC45" s="38"/>
-      <c r="BD45" s="38"/>
-      <c r="BE45" s="38"/>
-      <c r="BF45" s="38"/>
-      <c r="BG45" s="38"/>
-      <c r="BH45" s="38"/>
-      <c r="BI45" s="38"/>
-      <c r="BJ45" s="38"/>
-      <c r="BK45" s="38"/>
-      <c r="BL45" s="38"/>
-      <c r="BM45" s="38"/>
-      <c r="BN45" s="38"/>
-      <c r="BO45" s="38"/>
-      <c r="BP45" s="30"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="72"/>
+      <c r="X45" s="72"/>
+      <c r="Y45" s="72"/>
+      <c r="Z45" s="72"/>
+      <c r="AA45" s="72"/>
+      <c r="AB45" s="72"/>
+      <c r="AC45" s="72"/>
+      <c r="AD45" s="72"/>
+      <c r="AE45" s="72"/>
+      <c r="AF45" s="72"/>
+      <c r="AG45" s="72"/>
+      <c r="AH45" s="72"/>
+      <c r="AI45" s="72"/>
+      <c r="AJ45" s="72"/>
+      <c r="AK45" s="72"/>
+      <c r="AL45" s="72"/>
+      <c r="AM45" s="72"/>
+      <c r="AN45" s="72"/>
+      <c r="AO45" s="72"/>
+      <c r="AP45" s="72"/>
+      <c r="AQ45" s="72"/>
+      <c r="AR45" s="72"/>
+      <c r="AS45" s="72"/>
+      <c r="AT45" s="72"/>
+      <c r="AU45" s="72"/>
+      <c r="AV45" s="72"/>
+      <c r="AW45" s="72"/>
+      <c r="AX45" s="72"/>
+      <c r="AY45" s="72"/>
+      <c r="AZ45" s="72"/>
+      <c r="BA45" s="72"/>
+      <c r="BB45" s="72"/>
+      <c r="BC45" s="72"/>
+      <c r="BD45" s="72"/>
+      <c r="BE45" s="72"/>
+      <c r="BF45" s="72"/>
+      <c r="BG45" s="72"/>
+      <c r="BH45" s="72"/>
+      <c r="BI45" s="72"/>
+      <c r="BJ45" s="72"/>
+      <c r="BK45" s="72"/>
+      <c r="BL45" s="72"/>
+      <c r="BM45" s="72"/>
+      <c r="BN45" s="72"/>
+      <c r="BO45" s="72"/>
+      <c r="BP45" s="73"/>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="91"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+      <c r="Y46" s="72"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="72"/>
+      <c r="AE46" s="72"/>
+      <c r="AF46" s="72"/>
+      <c r="AG46" s="72"/>
+      <c r="AH46" s="72"/>
+      <c r="AI46" s="72"/>
+      <c r="AJ46" s="72"/>
+      <c r="AK46" s="72"/>
+      <c r="AL46" s="72"/>
+      <c r="AM46" s="72"/>
+      <c r="AN46" s="72"/>
+      <c r="AO46" s="72"/>
+      <c r="AP46" s="72"/>
+      <c r="AQ46" s="72"/>
+      <c r="AR46" s="72"/>
+      <c r="AS46" s="72"/>
+      <c r="AT46" s="72"/>
+      <c r="AU46" s="72"/>
+      <c r="AV46" s="72"/>
+      <c r="AW46" s="72"/>
+      <c r="AX46" s="72"/>
+      <c r="AY46" s="72"/>
+      <c r="AZ46" s="72"/>
+      <c r="BA46" s="72"/>
+      <c r="BB46" s="72"/>
+      <c r="BC46" s="72"/>
+      <c r="BD46" s="72"/>
+      <c r="BE46" s="72"/>
+      <c r="BF46" s="72"/>
+      <c r="BG46" s="72"/>
+      <c r="BH46" s="72"/>
+      <c r="BI46" s="72"/>
+      <c r="BJ46" s="72"/>
+      <c r="BK46" s="72"/>
+      <c r="BL46" s="72"/>
+      <c r="BM46" s="72"/>
+      <c r="BN46" s="72"/>
+      <c r="BO46" s="72"/>
+      <c r="BP46" s="73"/>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="91"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="72"/>
+      <c r="X47" s="72"/>
+      <c r="Y47" s="72"/>
+      <c r="Z47" s="72"/>
+      <c r="AA47" s="72"/>
+      <c r="AB47" s="72"/>
+      <c r="AC47" s="72"/>
+      <c r="AD47" s="72"/>
+      <c r="AE47" s="72"/>
+      <c r="AF47" s="72"/>
+      <c r="AG47" s="72"/>
+      <c r="AH47" s="72"/>
+      <c r="AI47" s="72"/>
+      <c r="AJ47" s="72"/>
+      <c r="AK47" s="72"/>
+      <c r="AL47" s="72"/>
+      <c r="AM47" s="72"/>
+      <c r="AN47" s="72"/>
+      <c r="AO47" s="72"/>
+      <c r="AP47" s="72"/>
+      <c r="AQ47" s="72"/>
+      <c r="AR47" s="72"/>
+      <c r="AS47" s="72"/>
+      <c r="AT47" s="72"/>
+      <c r="AU47" s="72"/>
+      <c r="AV47" s="72"/>
+      <c r="AW47" s="72"/>
+      <c r="AX47" s="72"/>
+      <c r="AY47" s="72"/>
+      <c r="AZ47" s="72"/>
+      <c r="BA47" s="72"/>
+      <c r="BB47" s="72"/>
+      <c r="BC47" s="72"/>
+      <c r="BD47" s="72"/>
+      <c r="BE47" s="72"/>
+      <c r="BF47" s="72"/>
+      <c r="BG47" s="72"/>
+      <c r="BH47" s="72"/>
+      <c r="BI47" s="72"/>
+      <c r="BJ47" s="72"/>
+      <c r="BK47" s="72"/>
+      <c r="BL47" s="72"/>
+      <c r="BM47" s="72"/>
+      <c r="BN47" s="72"/>
+      <c r="BO47" s="72"/>
+      <c r="BP47" s="73"/>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="91"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="72"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="72"/>
+      <c r="Y48" s="72"/>
+      <c r="Z48" s="72"/>
+      <c r="AA48" s="72"/>
+      <c r="AB48" s="72"/>
+      <c r="AC48" s="72"/>
+      <c r="AD48" s="72"/>
+      <c r="AE48" s="72"/>
+      <c r="AF48" s="72"/>
+      <c r="AG48" s="72"/>
+      <c r="AH48" s="72"/>
+      <c r="AI48" s="72"/>
+      <c r="AJ48" s="72"/>
+      <c r="AK48" s="72"/>
+      <c r="AL48" s="72"/>
+      <c r="AM48" s="72"/>
+      <c r="AN48" s="72"/>
+      <c r="AO48" s="72"/>
+      <c r="AP48" s="72"/>
+      <c r="AQ48" s="72"/>
+      <c r="AR48" s="72"/>
+      <c r="AS48" s="72"/>
+      <c r="AT48" s="72"/>
+      <c r="AU48" s="72"/>
+      <c r="AV48" s="72"/>
+      <c r="AW48" s="72"/>
+      <c r="AX48" s="72"/>
+      <c r="AY48" s="72"/>
+      <c r="AZ48" s="72"/>
+      <c r="BA48" s="72"/>
+      <c r="BB48" s="72"/>
+      <c r="BC48" s="72"/>
+      <c r="BD48" s="72"/>
+      <c r="BE48" s="72"/>
+      <c r="BF48" s="72"/>
+      <c r="BG48" s="72"/>
+      <c r="BH48" s="72"/>
+      <c r="BI48" s="72"/>
+      <c r="BJ48" s="72"/>
+      <c r="BK48" s="72"/>
+      <c r="BL48" s="72"/>
+      <c r="BM48" s="72"/>
+      <c r="BN48" s="72"/>
+      <c r="BO48" s="72"/>
+      <c r="BP48" s="73"/>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="91"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="72"/>
+      <c r="V49" s="72"/>
+      <c r="W49" s="72"/>
+      <c r="X49" s="72"/>
+      <c r="Y49" s="72"/>
+      <c r="Z49" s="72"/>
+      <c r="AA49" s="72"/>
+      <c r="AB49" s="72"/>
+      <c r="AC49" s="72"/>
+      <c r="AD49" s="72"/>
+      <c r="AE49" s="72"/>
+      <c r="AF49" s="72"/>
+      <c r="AG49" s="72"/>
+      <c r="AH49" s="72"/>
+      <c r="AI49" s="72"/>
+      <c r="AJ49" s="72"/>
+      <c r="AK49" s="72"/>
+      <c r="AL49" s="72"/>
+      <c r="AM49" s="72"/>
+      <c r="AN49" s="72"/>
+      <c r="AO49" s="72"/>
+      <c r="AP49" s="72"/>
+      <c r="AQ49" s="72"/>
+      <c r="AR49" s="72"/>
+      <c r="AS49" s="72"/>
+      <c r="AT49" s="72"/>
+      <c r="AU49" s="72"/>
+      <c r="AV49" s="72"/>
+      <c r="AW49" s="72"/>
+      <c r="AX49" s="72"/>
+      <c r="AY49" s="72"/>
+      <c r="AZ49" s="72"/>
+      <c r="BA49" s="72"/>
+      <c r="BB49" s="72"/>
+      <c r="BC49" s="72"/>
+      <c r="BD49" s="72"/>
+      <c r="BE49" s="72"/>
+      <c r="BF49" s="72"/>
+      <c r="BG49" s="72"/>
+      <c r="BH49" s="72"/>
+      <c r="BI49" s="72"/>
+      <c r="BJ49" s="72"/>
+      <c r="BK49" s="72"/>
+      <c r="BL49" s="72"/>
+      <c r="BM49" s="72"/>
+      <c r="BN49" s="72"/>
+      <c r="BO49" s="72"/>
+      <c r="BP49" s="73"/>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="38"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="38"/>
+      <c r="AE50" s="38"/>
+      <c r="AF50" s="38"/>
+      <c r="AG50" s="38"/>
+      <c r="AH50" s="38"/>
+      <c r="AI50" s="38"/>
+      <c r="AJ50" s="38"/>
+      <c r="AK50" s="38"/>
+      <c r="AL50" s="38"/>
+      <c r="AM50" s="38"/>
+      <c r="AN50" s="38"/>
+      <c r="AO50" s="38"/>
+      <c r="AP50" s="38"/>
+      <c r="AQ50" s="38"/>
+      <c r="AR50" s="38"/>
+      <c r="AS50" s="38"/>
+      <c r="AT50" s="38"/>
+      <c r="AU50" s="38"/>
+      <c r="AV50" s="38"/>
+      <c r="AW50" s="38"/>
+      <c r="AX50" s="38"/>
+      <c r="AY50" s="38"/>
+      <c r="AZ50" s="38"/>
+      <c r="BA50" s="38"/>
+      <c r="BB50" s="38"/>
+      <c r="BC50" s="38"/>
+      <c r="BD50" s="38"/>
+      <c r="BE50" s="38"/>
+      <c r="BF50" s="38"/>
+      <c r="BG50" s="38"/>
+      <c r="BH50" s="38"/>
+      <c r="BI50" s="38"/>
+      <c r="BJ50" s="38"/>
+      <c r="BK50" s="38"/>
+      <c r="BL50" s="38"/>
+      <c r="BM50" s="38"/>
+      <c r="BN50" s="38"/>
+      <c r="BO50" s="38"/>
+      <c r="BP50" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -13580,7 +13961,7 @@
       <c r="E4" s="248"/>
       <c r="F4" s="249"/>
       <c r="G4" s="250" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H4" s="251"/>
       <c r="I4" s="251"/>
@@ -13987,7 +14368,7 @@
       <c r="A10" s="49"/>
       <c r="C10" s="74"/>
       <c r="D10" s="75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="75"/>
       <c r="F10" s="75"/>
@@ -14054,7 +14435,7 @@
       <c r="C11" s="74"/>
       <c r="D11" s="75"/>
       <c r="E11" s="75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
@@ -14186,7 +14567,7 @@
         <v>57</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
@@ -14252,7 +14633,7 @@
       <c r="C14" s="74"/>
       <c r="D14" s="75"/>
       <c r="E14" s="75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="75"/>
       <c r="G14" s="75"/>
@@ -14318,11 +14699,11 @@
       <c r="C15" s="74"/>
       <c r="D15" s="75"/>
       <c r="E15" s="75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="75"/>
       <c r="G15" s="134" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
@@ -14709,7 +15090,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" s="75"/>
       <c r="G21" s="75"/>
@@ -14776,7 +15157,7 @@
       <c r="C22" s="135"/>
       <c r="D22" s="75"/>
       <c r="E22" s="75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="75"/>
       <c r="G22" s="75"/>
@@ -14908,7 +15289,7 @@
         <v>50</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F24" s="75"/>
       <c r="G24" s="75"/>
@@ -15036,10 +15417,10 @@
       <c r="A26" s="93"/>
       <c r="C26" s="135"/>
       <c r="D26" s="75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E26" s="75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F26" s="75"/>
       <c r="G26" s="75"/>
@@ -15168,10 +15549,10 @@
       <c r="A28" s="93"/>
       <c r="C28" s="135"/>
       <c r="D28" s="75" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E28" s="75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F28" s="75"/>
       <c r="G28" s="75"/>
@@ -15298,10 +15679,10 @@
     <row r="30" spans="1:66">
       <c r="C30" s="135"/>
       <c r="D30" s="75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E30" s="75" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F30" s="75"/>
       <c r="G30" s="75"/>
@@ -15429,10 +15810,10 @@
     <row r="32" spans="1:66">
       <c r="C32" s="135"/>
       <c r="D32" s="75" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E32" s="75" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F32" s="75"/>
       <c r="G32" s="75"/>
@@ -15559,10 +15940,10 @@
     <row r="34" spans="3:63">
       <c r="C34" s="135"/>
       <c r="D34" s="75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E34" s="75" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F34" s="75"/>
       <c r="G34" s="75"/>
@@ -16111,33 +16492,33 @@
       <c r="BL2" s="26"/>
     </row>
     <row r="3" spans="1:64" ht="12" customHeight="1">
-      <c r="A3" s="375"/>
-      <c r="B3" s="376"/>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
-      <c r="H3" s="376"/>
-      <c r="I3" s="376"/>
-      <c r="J3" s="376"/>
-      <c r="K3" s="376"/>
-      <c r="L3" s="376"/>
-      <c r="M3" s="376"/>
-      <c r="N3" s="376"/>
-      <c r="O3" s="376"/>
-      <c r="P3" s="376"/>
-      <c r="Q3" s="376"/>
-      <c r="R3" s="376"/>
-      <c r="S3" s="376"/>
-      <c r="T3" s="376"/>
-      <c r="U3" s="376"/>
-      <c r="V3" s="376"/>
-      <c r="W3" s="376"/>
-      <c r="X3" s="376"/>
-      <c r="Y3" s="376"/>
-      <c r="Z3" s="376"/>
-      <c r="AA3" s="376"/>
+      <c r="A3" s="377"/>
+      <c r="B3" s="378"/>
+      <c r="C3" s="378"/>
+      <c r="D3" s="378"/>
+      <c r="E3" s="378"/>
+      <c r="F3" s="378"/>
+      <c r="G3" s="378"/>
+      <c r="H3" s="378"/>
+      <c r="I3" s="378"/>
+      <c r="J3" s="378"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="378"/>
+      <c r="M3" s="378"/>
+      <c r="N3" s="378"/>
+      <c r="O3" s="378"/>
+      <c r="P3" s="378"/>
+      <c r="Q3" s="378"/>
+      <c r="R3" s="378"/>
+      <c r="S3" s="378"/>
+      <c r="T3" s="378"/>
+      <c r="U3" s="378"/>
+      <c r="V3" s="378"/>
+      <c r="W3" s="378"/>
+      <c r="X3" s="378"/>
+      <c r="Y3" s="378"/>
+      <c r="Z3" s="378"/>
+      <c r="AA3" s="378"/>
       <c r="AB3" s="38"/>
       <c r="AC3" s="38"/>
       <c r="AD3" s="38"/>
@@ -16177,67 +16558,67 @@
       <c r="BL3" s="45"/>
     </row>
     <row r="4" spans="1:64" ht="12" customHeight="1">
-      <c r="A4" s="377" t="s">
+      <c r="A4" s="379" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="378"/>
-      <c r="C4" s="378"/>
-      <c r="D4" s="378"/>
-      <c r="E4" s="378"/>
-      <c r="F4" s="379"/>
-      <c r="G4" s="380" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="381"/>
-      <c r="I4" s="381"/>
-      <c r="J4" s="381"/>
-      <c r="K4" s="381"/>
-      <c r="L4" s="381"/>
-      <c r="M4" s="381"/>
-      <c r="N4" s="381"/>
-      <c r="O4" s="382"/>
-      <c r="P4" s="383" t="s">
+      <c r="B4" s="380"/>
+      <c r="C4" s="380"/>
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="381"/>
+      <c r="G4" s="382" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="383"/>
+      <c r="I4" s="383"/>
+      <c r="J4" s="383"/>
+      <c r="K4" s="383"/>
+      <c r="L4" s="383"/>
+      <c r="M4" s="383"/>
+      <c r="N4" s="383"/>
+      <c r="O4" s="384"/>
+      <c r="P4" s="385" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="384"/>
-      <c r="R4" s="384"/>
-      <c r="S4" s="384"/>
-      <c r="T4" s="384"/>
-      <c r="U4" s="385"/>
-      <c r="V4" s="386" t="s">
+      <c r="Q4" s="386"/>
+      <c r="R4" s="386"/>
+      <c r="S4" s="386"/>
+      <c r="T4" s="386"/>
+      <c r="U4" s="387"/>
+      <c r="V4" s="388" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="387"/>
-      <c r="X4" s="387"/>
-      <c r="Y4" s="387"/>
-      <c r="Z4" s="387"/>
-      <c r="AA4" s="387"/>
-      <c r="AB4" s="387"/>
-      <c r="AC4" s="387"/>
-      <c r="AD4" s="387"/>
-      <c r="AE4" s="387"/>
-      <c r="AF4" s="387"/>
-      <c r="AG4" s="387"/>
-      <c r="AH4" s="387"/>
-      <c r="AI4" s="387"/>
-      <c r="AJ4" s="387"/>
-      <c r="AK4" s="387"/>
-      <c r="AL4" s="387"/>
-      <c r="AM4" s="387"/>
-      <c r="AN4" s="387"/>
-      <c r="AO4" s="387"/>
-      <c r="AP4" s="387"/>
-      <c r="AQ4" s="387"/>
-      <c r="AR4" s="387"/>
-      <c r="AS4" s="387"/>
-      <c r="AT4" s="387"/>
-      <c r="AU4" s="387"/>
-      <c r="AV4" s="388"/>
-      <c r="AW4" s="389" t="s">
+      <c r="W4" s="389"/>
+      <c r="X4" s="389"/>
+      <c r="Y4" s="389"/>
+      <c r="Z4" s="389"/>
+      <c r="AA4" s="389"/>
+      <c r="AB4" s="389"/>
+      <c r="AC4" s="389"/>
+      <c r="AD4" s="389"/>
+      <c r="AE4" s="389"/>
+      <c r="AF4" s="389"/>
+      <c r="AG4" s="389"/>
+      <c r="AH4" s="389"/>
+      <c r="AI4" s="389"/>
+      <c r="AJ4" s="389"/>
+      <c r="AK4" s="389"/>
+      <c r="AL4" s="389"/>
+      <c r="AM4" s="389"/>
+      <c r="AN4" s="389"/>
+      <c r="AO4" s="389"/>
+      <c r="AP4" s="389"/>
+      <c r="AQ4" s="389"/>
+      <c r="AR4" s="389"/>
+      <c r="AS4" s="389"/>
+      <c r="AT4" s="389"/>
+      <c r="AU4" s="389"/>
+      <c r="AV4" s="390"/>
+      <c r="AW4" s="391" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="390"/>
-      <c r="AY4" s="391"/>
+      <c r="AX4" s="392"/>
+      <c r="AY4" s="393"/>
       <c r="AZ4" s="262">
         <v>45663</v>
       </c>
@@ -16246,12 +16627,12 @@
       <c r="BC4" s="263"/>
       <c r="BD4" s="263"/>
       <c r="BE4" s="263"/>
-      <c r="BF4" s="389" t="s">
+      <c r="BF4" s="391" t="s">
         <v>12</v>
       </c>
-      <c r="BG4" s="390"/>
-      <c r="BH4" s="392"/>
-      <c r="BI4" s="393" t="s">
+      <c r="BG4" s="392"/>
+      <c r="BH4" s="394"/>
+      <c r="BI4" s="395" t="s">
         <v>44</v>
       </c>
       <c r="BJ4" s="268"/>
@@ -16259,14 +16640,14 @@
       <c r="BL4" s="269"/>
     </row>
     <row r="5" spans="1:64" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="394" t="s">
+      <c r="A5" s="396" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="395"/>
-      <c r="C5" s="395"/>
-      <c r="D5" s="395"/>
-      <c r="E5" s="395"/>
-      <c r="F5" s="396"/>
+      <c r="B5" s="397"/>
+      <c r="C5" s="397"/>
+      <c r="D5" s="397"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="398"/>
       <c r="G5" s="231"/>
       <c r="H5" s="231"/>
       <c r="I5" s="231"/>
@@ -16275,16 +16656,16 @@
       <c r="L5" s="231"/>
       <c r="M5" s="231"/>
       <c r="N5" s="231"/>
-      <c r="O5" s="397"/>
-      <c r="P5" s="394" t="s">
+      <c r="O5" s="399"/>
+      <c r="P5" s="396" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="395"/>
-      <c r="R5" s="395"/>
-      <c r="S5" s="395"/>
-      <c r="T5" s="395"/>
-      <c r="U5" s="396"/>
-      <c r="V5" s="398"/>
+      <c r="Q5" s="397"/>
+      <c r="R5" s="397"/>
+      <c r="S5" s="397"/>
+      <c r="T5" s="397"/>
+      <c r="U5" s="398"/>
+      <c r="V5" s="400"/>
       <c r="W5" s="234"/>
       <c r="X5" s="234"/>
       <c r="Y5" s="234"/>
@@ -16303,34 +16684,34 @@
       <c r="AL5" s="234"/>
       <c r="AM5" s="234"/>
       <c r="AN5" s="234"/>
-      <c r="AO5" s="399"/>
-      <c r="AP5" s="399"/>
-      <c r="AQ5" s="399"/>
-      <c r="AR5" s="399"/>
-      <c r="AS5" s="399"/>
-      <c r="AT5" s="399"/>
-      <c r="AU5" s="399"/>
-      <c r="AV5" s="400"/>
-      <c r="AW5" s="368" t="s">
+      <c r="AO5" s="401"/>
+      <c r="AP5" s="401"/>
+      <c r="AQ5" s="401"/>
+      <c r="AR5" s="401"/>
+      <c r="AS5" s="401"/>
+      <c r="AT5" s="401"/>
+      <c r="AU5" s="401"/>
+      <c r="AV5" s="402"/>
+      <c r="AW5" s="370" t="s">
         <v>15</v>
       </c>
-      <c r="AX5" s="369"/>
-      <c r="AY5" s="401"/>
-      <c r="AZ5" s="369"/>
-      <c r="BA5" s="369"/>
-      <c r="BB5" s="369"/>
-      <c r="BC5" s="369"/>
-      <c r="BD5" s="369"/>
-      <c r="BE5" s="369"/>
-      <c r="BF5" s="368" t="s">
+      <c r="AX5" s="371"/>
+      <c r="AY5" s="403"/>
+      <c r="AZ5" s="371"/>
+      <c r="BA5" s="371"/>
+      <c r="BB5" s="371"/>
+      <c r="BC5" s="371"/>
+      <c r="BD5" s="371"/>
+      <c r="BE5" s="371"/>
+      <c r="BF5" s="370" t="s">
         <v>16</v>
       </c>
-      <c r="BG5" s="369"/>
-      <c r="BH5" s="369"/>
-      <c r="BI5" s="370"/>
-      <c r="BJ5" s="371"/>
-      <c r="BK5" s="371"/>
-      <c r="BL5" s="372"/>
+      <c r="BG5" s="371"/>
+      <c r="BH5" s="371"/>
+      <c r="BI5" s="372"/>
+      <c r="BJ5" s="373"/>
+      <c r="BK5" s="373"/>
+      <c r="BL5" s="374"/>
     </row>
     <row r="6" spans="1:64" ht="12" customHeight="1" thickTop="1">
       <c r="A6" s="404" t="s">
@@ -16368,39 +16749,39 @@
       <c r="AE6" s="405"/>
       <c r="AF6" s="405"/>
       <c r="AG6" s="406"/>
-      <c r="AH6" s="355" t="s">
+      <c r="AH6" s="357" t="s">
         <v>39</v>
       </c>
-      <c r="AI6" s="356"/>
-      <c r="AJ6" s="356"/>
-      <c r="AK6" s="356"/>
-      <c r="AL6" s="356"/>
-      <c r="AM6" s="356"/>
-      <c r="AN6" s="356"/>
-      <c r="AO6" s="356"/>
-      <c r="AP6" s="356"/>
-      <c r="AQ6" s="356"/>
-      <c r="AR6" s="356"/>
-      <c r="AS6" s="357"/>
-      <c r="AT6" s="358" t="s">
+      <c r="AI6" s="358"/>
+      <c r="AJ6" s="358"/>
+      <c r="AK6" s="358"/>
+      <c r="AL6" s="358"/>
+      <c r="AM6" s="358"/>
+      <c r="AN6" s="358"/>
+      <c r="AO6" s="358"/>
+      <c r="AP6" s="358"/>
+      <c r="AQ6" s="358"/>
+      <c r="AR6" s="358"/>
+      <c r="AS6" s="359"/>
+      <c r="AT6" s="360" t="s">
         <v>22</v>
       </c>
-      <c r="AU6" s="359"/>
-      <c r="AV6" s="359"/>
-      <c r="AW6" s="359"/>
-      <c r="AX6" s="359"/>
-      <c r="AY6" s="359"/>
-      <c r="AZ6" s="359"/>
-      <c r="BA6" s="359"/>
-      <c r="BB6" s="359"/>
-      <c r="BC6" s="359"/>
-      <c r="BD6" s="359"/>
-      <c r="BE6" s="359"/>
-      <c r="BF6" s="359"/>
-      <c r="BG6" s="359"/>
-      <c r="BH6" s="359"/>
-      <c r="BI6" s="360"/>
-      <c r="BJ6" s="361"/>
+      <c r="AU6" s="361"/>
+      <c r="AV6" s="361"/>
+      <c r="AW6" s="361"/>
+      <c r="AX6" s="361"/>
+      <c r="AY6" s="361"/>
+      <c r="AZ6" s="361"/>
+      <c r="BA6" s="361"/>
+      <c r="BB6" s="361"/>
+      <c r="BC6" s="361"/>
+      <c r="BD6" s="361"/>
+      <c r="BE6" s="361"/>
+      <c r="BF6" s="361"/>
+      <c r="BG6" s="361"/>
+      <c r="BH6" s="361"/>
+      <c r="BI6" s="362"/>
+      <c r="BJ6" s="363"/>
       <c r="BK6" s="72"/>
       <c r="BL6" s="72"/>
     </row>
@@ -16456,46 +16837,46 @@
       <c r="AE7" s="409"/>
       <c r="AF7" s="409"/>
       <c r="AG7" s="410"/>
-      <c r="AH7" s="365" t="s">
+      <c r="AH7" s="367" t="s">
         <v>28</v>
       </c>
-      <c r="AI7" s="366"/>
-      <c r="AJ7" s="366"/>
-      <c r="AK7" s="366"/>
-      <c r="AL7" s="367"/>
-      <c r="AM7" s="373" t="s">
+      <c r="AI7" s="368"/>
+      <c r="AJ7" s="368"/>
+      <c r="AK7" s="368"/>
+      <c r="AL7" s="369"/>
+      <c r="AM7" s="375" t="s">
         <v>18</v>
       </c>
-      <c r="AN7" s="366"/>
-      <c r="AO7" s="366"/>
-      <c r="AP7" s="366"/>
-      <c r="AQ7" s="366"/>
-      <c r="AR7" s="366"/>
-      <c r="AS7" s="374"/>
-      <c r="AT7" s="362"/>
-      <c r="AU7" s="363"/>
-      <c r="AV7" s="363"/>
-      <c r="AW7" s="363"/>
-      <c r="AX7" s="363"/>
-      <c r="AY7" s="363"/>
-      <c r="AZ7" s="363"/>
-      <c r="BA7" s="363"/>
-      <c r="BB7" s="363"/>
-      <c r="BC7" s="363"/>
-      <c r="BD7" s="363"/>
-      <c r="BE7" s="363"/>
-      <c r="BF7" s="363"/>
-      <c r="BG7" s="363"/>
-      <c r="BH7" s="363"/>
-      <c r="BI7" s="363"/>
-      <c r="BJ7" s="364"/>
+      <c r="AN7" s="368"/>
+      <c r="AO7" s="368"/>
+      <c r="AP7" s="368"/>
+      <c r="AQ7" s="368"/>
+      <c r="AR7" s="368"/>
+      <c r="AS7" s="376"/>
+      <c r="AT7" s="364"/>
+      <c r="AU7" s="365"/>
+      <c r="AV7" s="365"/>
+      <c r="AW7" s="365"/>
+      <c r="AX7" s="365"/>
+      <c r="AY7" s="365"/>
+      <c r="AZ7" s="365"/>
+      <c r="BA7" s="365"/>
+      <c r="BB7" s="365"/>
+      <c r="BC7" s="365"/>
+      <c r="BD7" s="365"/>
+      <c r="BE7" s="365"/>
+      <c r="BF7" s="365"/>
+      <c r="BG7" s="365"/>
+      <c r="BH7" s="365"/>
+      <c r="BI7" s="365"/>
+      <c r="BJ7" s="366"/>
     </row>
     <row r="8" spans="1:64" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="98">
         <v>1</v>
       </c>
       <c r="B8" s="318" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="319"/>
       <c r="D8" s="319"/>
@@ -16508,7 +16889,7 @@
       <c r="K8" s="319"/>
       <c r="L8" s="320"/>
       <c r="M8" s="308" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N8" s="310"/>
       <c r="O8" s="310"/>
@@ -16518,16 +16899,16 @@
       <c r="S8" s="328"/>
       <c r="T8" s="328"/>
       <c r="U8" s="329"/>
-      <c r="V8" s="402" t="s">
+      <c r="V8" s="355" t="s">
         <v>46</v>
       </c>
-      <c r="W8" s="403"/>
+      <c r="W8" s="356"/>
       <c r="X8" s="323" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Y8" s="330"/>
       <c r="Z8" s="342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA8" s="343"/>
       <c r="AB8" s="308" t="s">
@@ -16579,7 +16960,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="318" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="319"/>
       <c r="D9" s="319"/>
@@ -16592,7 +16973,7 @@
       <c r="K9" s="319"/>
       <c r="L9" s="320"/>
       <c r="M9" s="308" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N9" s="310"/>
       <c r="O9" s="310"/>
@@ -16607,11 +16988,11 @@
       </c>
       <c r="W9" s="345"/>
       <c r="X9" s="323" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Y9" s="330"/>
       <c r="Z9" s="342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA9" s="343"/>
       <c r="AB9" s="308" t="s">
@@ -16619,7 +17000,7 @@
       </c>
       <c r="AC9" s="309"/>
       <c r="AD9" s="308" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AE9" s="310"/>
       <c r="AF9" s="310"/>
@@ -16676,7 +17057,7 @@
       <c r="K10" s="319"/>
       <c r="L10" s="320"/>
       <c r="M10" s="308" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N10" s="310"/>
       <c r="O10" s="310"/>
@@ -16691,11 +17072,11 @@
       </c>
       <c r="W10" s="345"/>
       <c r="X10" s="323" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y10" s="330"/>
       <c r="Z10" s="342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA10" s="343"/>
       <c r="AB10" s="308" t="s">
@@ -16707,14 +17088,14 @@
       <c r="AF10" s="310"/>
       <c r="AG10" s="309"/>
       <c r="AH10" s="311" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI10" s="312"/>
       <c r="AJ10" s="312"/>
       <c r="AK10" s="312"/>
       <c r="AL10" s="313"/>
       <c r="AM10" s="314" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AN10" s="315"/>
       <c r="AO10" s="315"/>
@@ -16773,11 +17154,11 @@
       </c>
       <c r="W11" s="345"/>
       <c r="X11" s="323" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Y11" s="330"/>
       <c r="Z11" s="342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA11" s="343"/>
       <c r="AB11" s="308" t="s">
@@ -16855,11 +17236,11 @@
       </c>
       <c r="W12" s="345"/>
       <c r="X12" s="323" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y12" s="330"/>
       <c r="Z12" s="342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA12" s="343"/>
       <c r="AB12" s="308" t="s">
@@ -16867,20 +17248,20 @@
       </c>
       <c r="AC12" s="309"/>
       <c r="AD12" s="308" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE12" s="310"/>
       <c r="AF12" s="310"/>
       <c r="AG12" s="309"/>
       <c r="AH12" s="311" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI12" s="312"/>
       <c r="AJ12" s="312"/>
       <c r="AK12" s="312"/>
       <c r="AL12" s="313"/>
       <c r="AM12" s="314" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AN12" s="315"/>
       <c r="AO12" s="315"/>
@@ -16924,7 +17305,7 @@
       <c r="K13" s="319"/>
       <c r="L13" s="320"/>
       <c r="M13" s="308" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N13" s="310"/>
       <c r="O13" s="310"/>
@@ -16939,11 +17320,11 @@
       </c>
       <c r="W13" s="345"/>
       <c r="X13" s="323" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y13" s="330"/>
       <c r="Z13" s="342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA13" s="343"/>
       <c r="AB13" s="308" t="s">
@@ -16951,20 +17332,20 @@
       </c>
       <c r="AC13" s="309"/>
       <c r="AD13" s="308" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AE13" s="310"/>
       <c r="AF13" s="310"/>
       <c r="AG13" s="309"/>
       <c r="AH13" s="311" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI13" s="312"/>
       <c r="AJ13" s="312"/>
       <c r="AK13" s="312"/>
       <c r="AL13" s="313"/>
       <c r="AM13" s="314" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN13" s="315"/>
       <c r="AO13" s="315"/>
@@ -17023,11 +17404,11 @@
       </c>
       <c r="W14" s="345"/>
       <c r="X14" s="323" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y14" s="330"/>
       <c r="Z14" s="342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA14" s="343"/>
       <c r="AB14" s="308" t="s">
@@ -17039,14 +17420,14 @@
       <c r="AF14" s="310"/>
       <c r="AG14" s="309"/>
       <c r="AH14" s="311" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI14" s="312"/>
       <c r="AJ14" s="312"/>
       <c r="AK14" s="312"/>
       <c r="AL14" s="313"/>
       <c r="AM14" s="314" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AN14" s="315"/>
       <c r="AO14" s="315"/>
@@ -17105,11 +17486,11 @@
       </c>
       <c r="W15" s="345"/>
       <c r="X15" s="323" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y15" s="330"/>
       <c r="Z15" s="342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA15" s="343"/>
       <c r="AB15" s="308" t="s">
@@ -17121,14 +17502,14 @@
       <c r="AF15" s="310"/>
       <c r="AG15" s="309"/>
       <c r="AH15" s="311" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI15" s="312"/>
       <c r="AJ15" s="312"/>
       <c r="AK15" s="312"/>
       <c r="AL15" s="313"/>
       <c r="AM15" s="334" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AN15" s="335"/>
       <c r="AO15" s="335"/>
@@ -17159,7 +17540,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="318" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" s="319"/>
       <c r="D16" s="319"/>
@@ -17172,7 +17553,7 @@
       <c r="K16" s="319"/>
       <c r="L16" s="320"/>
       <c r="M16" s="308" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N16" s="310"/>
       <c r="O16" s="310"/>
@@ -17187,11 +17568,11 @@
       </c>
       <c r="W16" s="345"/>
       <c r="X16" s="323" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y16" s="330"/>
       <c r="Z16" s="342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA16" s="343"/>
       <c r="AB16" s="308" t="s">
@@ -17199,20 +17580,20 @@
       </c>
       <c r="AC16" s="309"/>
       <c r="AD16" s="308" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AE16" s="310"/>
       <c r="AF16" s="310"/>
       <c r="AG16" s="309"/>
       <c r="AH16" s="311" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI16" s="312"/>
       <c r="AJ16" s="312"/>
       <c r="AK16" s="312"/>
       <c r="AL16" s="313"/>
       <c r="AM16" s="314" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AN16" s="315"/>
       <c r="AO16" s="315"/>
@@ -17243,7 +17624,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="318" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C17" s="319"/>
       <c r="D17" s="319"/>
@@ -17256,7 +17637,7 @@
       <c r="K17" s="319"/>
       <c r="L17" s="320"/>
       <c r="M17" s="308" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N17" s="310"/>
       <c r="O17" s="310"/>
@@ -17271,11 +17652,11 @@
       </c>
       <c r="W17" s="345"/>
       <c r="X17" s="323" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y17" s="330"/>
       <c r="Z17" s="342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA17" s="343"/>
       <c r="AB17" s="308" t="s">
@@ -17283,14 +17664,14 @@
       </c>
       <c r="AC17" s="309"/>
       <c r="AH17" s="311" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AI17" s="312"/>
       <c r="AJ17" s="312"/>
       <c r="AK17" s="312"/>
       <c r="AL17" s="313"/>
       <c r="AM17" s="314" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AN17" s="315"/>
       <c r="AO17" s="315"/>
@@ -17334,7 +17715,7 @@
       <c r="K18" s="319"/>
       <c r="L18" s="320"/>
       <c r="M18" s="308" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N18" s="310"/>
       <c r="O18" s="310"/>
@@ -17349,11 +17730,11 @@
       </c>
       <c r="W18" s="345"/>
       <c r="X18" s="323" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y18" s="330"/>
       <c r="Z18" s="342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA18" s="343"/>
       <c r="AB18" s="308" t="s">
@@ -17416,7 +17797,7 @@
       <c r="K19" s="340"/>
       <c r="L19" s="341"/>
       <c r="M19" s="308" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N19" s="310"/>
       <c r="O19" s="310"/>
@@ -17431,11 +17812,11 @@
       </c>
       <c r="W19" s="345"/>
       <c r="X19" s="323" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y19" s="330"/>
       <c r="Z19" s="342" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AA19" s="343"/>
       <c r="AB19" s="308" t="s">
@@ -19170,36 +19551,36 @@
       <c r="BF2" s="27"/>
     </row>
     <row r="3" spans="1:58" ht="13">
-      <c r="A3" s="375"/>
-      <c r="B3" s="376"/>
-      <c r="C3" s="376"/>
-      <c r="D3" s="376"/>
-      <c r="E3" s="376"/>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376"/>
-      <c r="H3" s="376"/>
-      <c r="I3" s="376"/>
-      <c r="J3" s="376"/>
-      <c r="K3" s="376"/>
-      <c r="L3" s="376"/>
-      <c r="M3" s="376"/>
-      <c r="N3" s="376"/>
-      <c r="O3" s="376"/>
-      <c r="P3" s="376"/>
-      <c r="Q3" s="376"/>
-      <c r="R3" s="376"/>
-      <c r="S3" s="376"/>
-      <c r="T3" s="376"/>
-      <c r="U3" s="376"/>
-      <c r="V3" s="376"/>
-      <c r="W3" s="376"/>
-      <c r="X3" s="376"/>
-      <c r="Y3" s="376"/>
-      <c r="Z3" s="376"/>
-      <c r="AA3" s="376"/>
-      <c r="AB3" s="376"/>
-      <c r="AC3" s="376"/>
-      <c r="AD3" s="376"/>
+      <c r="A3" s="377"/>
+      <c r="B3" s="378"/>
+      <c r="C3" s="378"/>
+      <c r="D3" s="378"/>
+      <c r="E3" s="378"/>
+      <c r="F3" s="378"/>
+      <c r="G3" s="378"/>
+      <c r="H3" s="378"/>
+      <c r="I3" s="378"/>
+      <c r="J3" s="378"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="378"/>
+      <c r="M3" s="378"/>
+      <c r="N3" s="378"/>
+      <c r="O3" s="378"/>
+      <c r="P3" s="378"/>
+      <c r="Q3" s="378"/>
+      <c r="R3" s="378"/>
+      <c r="S3" s="378"/>
+      <c r="T3" s="378"/>
+      <c r="U3" s="378"/>
+      <c r="V3" s="378"/>
+      <c r="W3" s="378"/>
+      <c r="X3" s="378"/>
+      <c r="Y3" s="378"/>
+      <c r="Z3" s="378"/>
+      <c r="AA3" s="378"/>
+      <c r="AB3" s="378"/>
+      <c r="AC3" s="378"/>
+      <c r="AD3" s="378"/>
       <c r="AE3" s="38"/>
       <c r="AF3" s="38"/>
       <c r="AG3" s="38"/>
@@ -19230,66 +19611,66 @@
       <c r="BF3" s="40"/>
     </row>
     <row r="4" spans="1:58" ht="15">
-      <c r="A4" s="377" t="s">
+      <c r="A4" s="379" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="378"/>
-      <c r="C4" s="378"/>
-      <c r="D4" s="378"/>
-      <c r="E4" s="378"/>
-      <c r="F4" s="379"/>
-      <c r="G4" s="380"/>
-      <c r="H4" s="381"/>
-      <c r="I4" s="381"/>
-      <c r="J4" s="381"/>
-      <c r="K4" s="381"/>
-      <c r="L4" s="381"/>
-      <c r="M4" s="381"/>
-      <c r="N4" s="381"/>
-      <c r="O4" s="382"/>
-      <c r="P4" s="383" t="s">
+      <c r="B4" s="380"/>
+      <c r="C4" s="380"/>
+      <c r="D4" s="380"/>
+      <c r="E4" s="380"/>
+      <c r="F4" s="381"/>
+      <c r="G4" s="382"/>
+      <c r="H4" s="383"/>
+      <c r="I4" s="383"/>
+      <c r="J4" s="383"/>
+      <c r="K4" s="383"/>
+      <c r="L4" s="383"/>
+      <c r="M4" s="383"/>
+      <c r="N4" s="383"/>
+      <c r="O4" s="384"/>
+      <c r="P4" s="385" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="421"/>
       <c r="R4" s="421"/>
       <c r="S4" s="421"/>
-      <c r="T4" s="384"/>
-      <c r="U4" s="384"/>
-      <c r="V4" s="384"/>
-      <c r="W4" s="384"/>
-      <c r="X4" s="385"/>
-      <c r="Y4" s="386"/>
-      <c r="Z4" s="387"/>
-      <c r="AA4" s="387"/>
-      <c r="AB4" s="387"/>
-      <c r="AC4" s="387"/>
-      <c r="AD4" s="387"/>
-      <c r="AE4" s="387"/>
-      <c r="AF4" s="387"/>
-      <c r="AG4" s="387"/>
-      <c r="AH4" s="387"/>
-      <c r="AI4" s="387"/>
-      <c r="AJ4" s="387"/>
-      <c r="AK4" s="387"/>
-      <c r="AL4" s="387"/>
-      <c r="AM4" s="387"/>
-      <c r="AN4" s="388"/>
-      <c r="AO4" s="389" t="s">
+      <c r="T4" s="386"/>
+      <c r="U4" s="386"/>
+      <c r="V4" s="386"/>
+      <c r="W4" s="386"/>
+      <c r="X4" s="387"/>
+      <c r="Y4" s="388"/>
+      <c r="Z4" s="389"/>
+      <c r="AA4" s="389"/>
+      <c r="AB4" s="389"/>
+      <c r="AC4" s="389"/>
+      <c r="AD4" s="389"/>
+      <c r="AE4" s="389"/>
+      <c r="AF4" s="389"/>
+      <c r="AG4" s="389"/>
+      <c r="AH4" s="389"/>
+      <c r="AI4" s="389"/>
+      <c r="AJ4" s="389"/>
+      <c r="AK4" s="389"/>
+      <c r="AL4" s="389"/>
+      <c r="AM4" s="389"/>
+      <c r="AN4" s="390"/>
+      <c r="AO4" s="391" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="390"/>
-      <c r="AQ4" s="391"/>
+      <c r="AP4" s="392"/>
+      <c r="AQ4" s="393"/>
       <c r="AR4" s="262"/>
       <c r="AS4" s="263"/>
       <c r="AT4" s="263"/>
       <c r="AU4" s="263"/>
       <c r="AV4" s="263"/>
       <c r="AW4" s="263"/>
-      <c r="AX4" s="389" t="s">
+      <c r="AX4" s="391" t="s">
         <v>12</v>
       </c>
-      <c r="AY4" s="390"/>
-      <c r="AZ4" s="391"/>
+      <c r="AY4" s="392"/>
+      <c r="AZ4" s="393"/>
       <c r="BA4" s="422"/>
       <c r="BB4" s="263"/>
       <c r="BC4" s="263"/>
